--- a/pred_ohlcv/54_21/2019-10-19 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XRP ohlcv.xlsx
@@ -4136,7 +4136,7 @@
         <v>122712.7937199399</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>451282.4426693699</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>384439.05726937</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>233718.3708693699</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>223836.74648111</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>224605.59848111</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>196129.50718111</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>152879.07788111</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>152879.07788111</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>441765.66258103</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-249107.96608973</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-249107.96608973</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-268650.60508973</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-194041.87268973</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>221230.59184073</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>85311.43394073</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>120111.72594073</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>85884.09164073001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>103710.89434073</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-130399.05785927</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2388662.08697771</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2388662.08697771</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2741899.11307771</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1231705.97502764</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1429847.37369582</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1145353.45759582</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1200594.18469582</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2443339.98444461</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2461512.90494461</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1891131.20414461</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1698654.32334461</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1713182.37464461</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1713182.37464461</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1713182.37464461</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1736607.25754461</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1606516.67014461</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>1606516.67014461</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2536044.226899261</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XRP ohlcv.xlsx
@@ -4136,7 +4136,7 @@
         <v>122712.7937199399</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>451282.4426693699</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>402800.8090693699</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>384424.05726937</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>384439.05726937</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>240203.8181693699</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>233718.3708693699</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>223836.74648111</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>224605.59848111</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>195717.82148111</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>196129.50718111</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>152879.07788111</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>152879.07788111</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>153543.59988111</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>114365.36818111</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>486074.84425254</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>441765.66258103</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-249107.96608973</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-249107.96608973</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-261497.76238973</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-268650.60508973</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-268313.83198973</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-268313.83198973</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-194041.87268973</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-194041.87268973</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>221230.59184073</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>85311.43394073</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>120111.72594073</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>85884.09164073001</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>93452.75684073001</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>103710.89434073</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-129848.27625927</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-130399.05785927</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2388662.08697771</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2388662.08697771</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2741899.11307771</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1382375.12129127</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1231705.97502764</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1429847.37369582</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1145353.45759582</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1200594.18469582</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1706096.97193071</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>2112183.80828084</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>2855345.53944461</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2657871.28804461</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2443339.98444461</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2461512.90494461</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1891131.20414461</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1713182.37464461</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>1736607.25754461</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1606516.67014461</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2536044.226899261</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
